--- a/NDC/Antidepressants/error.xlsx
+++ b/NDC/Antidepressants/error.xlsx
@@ -97,7 +97,7 @@
     <t>20231231</t>
   </si>
   <si>
-    <t>{}</t>
+    <t>{'manufacturer_name': ['Allergan, Inc.'], 'rxcui': ['1086772', '1086776', '1086778', '1086780', '1086784', '1086786', '1086789', '1086790', '1653469', '1653470'], 'spl_set_id': ['4c55ccfb-c4cf-11df-851a-0800200c9a66'], 'is_original_packager': [True], 'upc': ['0304561110308', '0304561120307', '0304561140305'], 'unii': ['U8HTX2GK8J']}</t>
   </si>
   <si>
     <t>{'manufacturer_name': ['Allergan, Inc.'], 'rxcui': ['1433217', '1433223', '1433227', '1433229', '1433233', '1433235', '1433239', '1433241', '1433249', '1433250'], 'spl_set_id': ['f371258d-91b3-4b6a-ac99-434a1964c3af'], 'is_original_packager': [True], 'upc': ['0304562280307', '0304562220303'], 'unii': ['371U2ZK31U']}</t>
